--- a/biology/Zoologie/Ideoroncidae/Ideoroncidae.xlsx
+++ b/biology/Zoologie/Ideoroncidae/Ideoroncidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ideoroncidae sont une famille de pseudoscorpions.
 Elle comporte plus de 80 d'espèces dans 14 genres.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Asie et en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Asie et en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Pseudoscorpions of the World (version 3.0) :
 Afroroncus Mahnert, 1981
 Albiorix Chamberlin, 1930
 Dhanus Chamberlin, 1930
@@ -562,7 +578,7 @@
 Muchmoreus Harvey, 2013
 Sironcus Harvey, 2016
 † Proalbiorix Geißler, Kotthoff, Hammel, Harvey &amp; Harms, 2022
-Nhatrangia a été placé en synonymie avec Shravana par Harvey en 2016[2] confirmant la proposition de Beier en 1967[3].
+Nhatrangia a été placé en synonymie avec Shravana par Harvey en 2016 confirmant la proposition de Beier en 1967.
 </t>
         </is>
       </c>
@@ -591,7 +607,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Chamberlin en 1930.
 </t>
@@ -622,7 +640,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin, 1930 : « A synoptic classification of the false scorpions or chela-spinners, with a report on a cosmopolitan collection of the same. Part II. The Diplosphyronida (Arachnida-Chelonethida). » Annals and Magazine of Natural History, sér. 10, vol. 5, p. 1-48 &amp; 585-620.</t>
         </is>
